--- a/Data_science_outputs/200pop/output_results/output_analysis_3.xlsx
+++ b/Data_science_outputs/200pop/output_results/output_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5530.097730798657</v>
+        <v>4041.924321669676</v>
       </c>
       <c r="C3" t="n">
         <v>3266.109900601753</v>
       </c>
       <c r="D3" t="n">
-        <v>1772.763174460915</v>
+        <v>271.2254994103271</v>
       </c>
       <c r="E3" t="n">
         <v>511.4768157636237</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2058.186380601383</v>
+        <v>1819.763485645279</v>
       </c>
       <c r="C4" t="n">
         <v>1634.233755191345</v>
       </c>
       <c r="D4" t="n">
-        <v>1574.2055402415</v>
+        <v>233.8897319487942</v>
       </c>
       <c r="E4" t="n">
         <v>493.0115432927789</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125.003</v>
+        <v>146.014</v>
       </c>
       <c r="C5" t="n">
         <v>152.004</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4017.00675</v>
+        <v>2604.118999999999</v>
       </c>
       <c r="C6" t="n">
         <v>2014.795499999999</v>
       </c>
       <c r="D6" t="n">
-        <v>200.003</v>
+        <v>200.001</v>
       </c>
       <c r="E6" t="n">
         <v>241</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5818.078000000003</v>
+        <v>3643.011500000001</v>
       </c>
       <c r="C7" t="n">
         <v>2830</v>
       </c>
       <c r="D7" t="n">
-        <v>1900.003</v>
+        <v>280.001</v>
       </c>
       <c r="E7" t="n">
         <v>423</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7022.138999999997</v>
+        <v>5494.01</v>
       </c>
       <c r="C8" t="n">
         <v>4598.089750000005</v>
       </c>
       <c r="D8" t="n">
-        <v>3365</v>
+        <v>295.004</v>
       </c>
       <c r="E8" t="n">
         <v>605.002</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12082.007</v>
+        <v>13187.064</v>
       </c>
       <c r="C9" t="n">
         <v>8432.073000000002</v>
       </c>
       <c r="D9" t="n">
-        <v>4780</v>
+        <v>2180</v>
       </c>
       <c r="E9" t="n">
         <v>5900.001</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>2906619367.306001</v>
+        <v>2124435423.468</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>141095947.706</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5869440104998086</v>
+        <v>0.8063540400844776</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>931764324.4970005</v>
+        <v>142556122.49</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3205663372980983</v>
+        <v>0.06710306226078952</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>268832214.3660001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09248965220209315</v>
+        <v>0.1265428976547328</v>
       </c>
     </row>
   </sheetData>
